--- a/exploratory_analysis/resultados_feature_selection.xlsx
+++ b/exploratory_analysis/resultados_feature_selection.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,37 +494,37 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.7996695669210474</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.7996695669210474</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.7996695669210474</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.7996695669210474</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.7996695669210474</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.7996695669210474</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.7996695669210474</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4564354645876385</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.7996695669210474</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.7996695669210474</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4564354645876384</v>
+        <v>0.7197026102289427</v>
       </c>
     </row>
     <row r="4">
@@ -535,37 +535,37 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9354143466934853</v>
+        <v>0.8107295419051795</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9372684899334993</v>
+        <v>0.8107295419051795</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7144345083117604</v>
+        <v>0.8107295419051795</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7216878364870323</v>
+        <v>0.8107295419051795</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.8107295419051795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9372684899334993</v>
+        <v>0.8107295419051795</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.8107295419051795</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8416254115301732</v>
+        <v>0.6509445549041193</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9372684899334993</v>
+        <v>0.8107295419051795</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7216878364870323</v>
+        <v>0.8107295419051795</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7659526338485259</v>
+        <v>0.7947510432050736</v>
       </c>
     </row>
     <row r="5">
@@ -576,37 +576,37 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9574271077563381</v>
+        <v>0.8061099627521434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.8061099627521434</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7144345083117604</v>
+        <v>0.8133827492001239</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7872684844871327</v>
+        <v>0.8133827492001239</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.8133827492001239</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.8146179553015536</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6627489050244527</v>
+        <v>0.8133827492001239</v>
       </c>
       <c r="J5" t="n">
-        <v>0.816496580927726</v>
+        <v>0.6638357975446149</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.8133827492001239</v>
       </c>
       <c r="L5" t="n">
-        <v>0.739509972887452</v>
+        <v>0.8107295419051795</v>
       </c>
       <c r="M5" t="n">
-        <v>0.80093210239825</v>
+        <v>0.7968316966256255</v>
       </c>
     </row>
     <row r="6">
@@ -617,37 +617,37 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8265210400160413</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8355089860248296</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7872684844871327</v>
+        <v>0.8133827492001239</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7288689868556626</v>
+        <v>0.8133827492001239</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4564354645876385</v>
+        <v>0.8133827492001239</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8337880594067012</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6627489050244527</v>
+        <v>0.8133827492001239</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7637626158259734</v>
+        <v>0.7364596943186587</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8133827492001239</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7872684844871327</v>
+        <v>0.8091334415105091</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8102132982758234</v>
+        <v>0.8108324967277358</v>
       </c>
     </row>
     <row r="7">
@@ -658,37 +658,37 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.92973478995949</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.9308156079827784</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7872684844871327</v>
+        <v>0.8368831793646447</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8100925873009825</v>
+        <v>0.8368831793646447</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.8379123453768322</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.9320492938893234</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7204840194079409</v>
+        <v>0.8265210400160413</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7905694150420949</v>
+        <v>0.8635755391767456</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8897901524343517</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7872684844871327</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8311463032215528</v>
+        <v>0.8711901768044499</v>
       </c>
     </row>
     <row r="8">
@@ -699,37 +699,37 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.9388055880763545</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.9397231373307873</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7453559924999299</v>
+        <v>0.8198906184710389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.768295371441074</v>
+        <v>0.8289504583483041</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.8447414097882788</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.940639791560109</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7204840194079409</v>
+        <v>0.7949857220039711</v>
       </c>
       <c r="J8" t="n">
-        <v>0.816496580927726</v>
+        <v>0.8537057803025782</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8811929445122684</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7872684844871327</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8253680490254048</v>
+        <v>0.8670372090873336</v>
       </c>
     </row>
     <row r="9">
@@ -740,37 +740,37 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.9388055880763545</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.9397231373307873</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7453559924999299</v>
+        <v>0.8198906184710389</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8100925873009825</v>
+        <v>0.8289504583483041</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5400617248673217</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.940639791560109</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7204840194079409</v>
+        <v>0.8028962225306449</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7905694150420949</v>
+        <v>0.8336157713463008</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8811929445122684</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7905694150420949</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8312913195650609</v>
+        <v>0.8641187813135099</v>
       </c>
     </row>
     <row r="10">
@@ -781,37 +781,37 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.9572895760300297</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.9485470223480151</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7453559924999299</v>
+        <v>0.8198906184710389</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8100925873009825</v>
+        <v>0.8525272094887656</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5286907308520633</v>
+        <v>0.8368831793646447</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.957589619784782</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7204840194079409</v>
+        <v>0.8146179553015536</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7637626158259734</v>
+        <v>0.8437205738748232</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8897901524343517</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7905694150420949</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8274735402419229</v>
+        <v>0.8748592547577652</v>
       </c>
     </row>
     <row r="11">
@@ -822,37 +822,37 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.9572895760300297</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.947789578306157</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7905694150420949</v>
+        <v>0.8198906184710389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.82915619758885</v>
+        <v>0.8695427348054685</v>
       </c>
       <c r="G11" t="n">
-        <v>0.565194165260439</v>
+        <v>0.8119687842036261</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.957589619784782</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7204840194079409</v>
+        <v>0.8261733970816231</v>
       </c>
       <c r="J11" t="n">
-        <v>0.816496580927726</v>
+        <v>0.8635755391767456</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8811929445122684</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8100925873009825</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8510937975900594</v>
+        <v>0.8762749432851384</v>
       </c>
     </row>
     <row r="12">
@@ -863,37 +863,37 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.9566892062149209</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.947789578306157</v>
       </c>
       <c r="E12" t="n">
-        <v>0.768295371441074</v>
+        <v>0.8198906184710389</v>
       </c>
       <c r="F12" t="n">
-        <v>0.82915619758885</v>
+        <v>0.8695427348054685</v>
       </c>
       <c r="G12" t="n">
-        <v>0.565194165260439</v>
+        <v>0.8119687842036261</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.9572895760300297</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7204840194079409</v>
+        <v>0.8261733970816231</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7905694150420949</v>
+        <v>0.8537057803025782</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8811929445122684</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8100925873009825</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8462736766413942</v>
+        <v>0.8751979260407357</v>
       </c>
     </row>
     <row r="13">
@@ -904,119 +904,37 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.9742446008949094</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9655068046526178</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7264831572567788</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8518770125108697</v>
+        <v>0.8629099702615495</v>
       </c>
       <c r="G13" t="n">
-        <v>0.565194165260439</v>
+        <v>0.8119687842036261</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.9745394245061052</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7476816018719317</v>
+        <v>0.8198906184710389</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7637626158259734</v>
+        <v>0.8336157713463008</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L13" t="n">
-        <v>0.82915619758885</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8463099760687403</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.7264831572567788</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.8518770125108697</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.565194165260439</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.7476816018719317</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7359800721939872</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.9789450103725609</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.8100925873009825</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.841625360676755</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.768295371441074</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.8936504412303007</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.565194165260439</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.7476816018719317</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.67700320038633</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.9789450103725609</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.8122328620674136</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.8443002652630049</v>
+        <v>0.8796454340041203</v>
       </c>
     </row>
   </sheetData>
@@ -1103,84 +1021,84 @@
     <row r="2"/>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9742446008949094</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9655068046526178</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7905694150420949</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="F3" t="n">
-        <v>0.82915619758885</v>
+        <v>0.8629099702615495</v>
       </c>
       <c r="G3" t="n">
-        <v>0.565194165260439</v>
+        <v>0.8119687842036261</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9745394245061052</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7204840194079409</v>
+        <v>0.8198906184710389</v>
       </c>
       <c r="J3" t="n">
-        <v>0.816496580927726</v>
+        <v>0.8336157713463008</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8100925873009825</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8510937975900594</v>
+        <v>0.8796454340041203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9572895760300297</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.947789578306157</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7264831572567788</v>
+        <v>0.8198906184710389</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8518770125108697</v>
+        <v>0.8695427348054685</v>
       </c>
       <c r="G4" t="n">
-        <v>0.565194165260439</v>
+        <v>0.8119687842036261</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.957589619784782</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7476816018719317</v>
+        <v>0.8261733970816231</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7637626158259734</v>
+        <v>0.8635755391767456</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8811929445122684</v>
       </c>
       <c r="L4" t="n">
-        <v>0.82915619758885</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8463099760687403</v>
+        <v>0.8762749432851384</v>
       </c>
     </row>
     <row r="5">
@@ -1191,119 +1109,119 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9566892062149209</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.947789578306157</v>
       </c>
       <c r="E5" t="n">
-        <v>0.768295371441074</v>
+        <v>0.8198906184710389</v>
       </c>
       <c r="F5" t="n">
-        <v>0.82915619758885</v>
+        <v>0.8695427348054685</v>
       </c>
       <c r="G5" t="n">
-        <v>0.565194165260439</v>
+        <v>0.8119687842036261</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.9572895760300297</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7204840194079409</v>
+        <v>0.8261733970816231</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7905694150420949</v>
+        <v>0.8537057803025782</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8811929445122684</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8100925873009825</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8462736766413942</v>
+        <v>0.8751979260407357</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9572895760300297</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9485470223480151</v>
       </c>
       <c r="E6" t="n">
-        <v>0.768295371441074</v>
+        <v>0.8198906184710389</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8936504412303007</v>
+        <v>0.8525272094887656</v>
       </c>
       <c r="G6" t="n">
-        <v>0.565194165260439</v>
+        <v>0.8368831793646447</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.957589619784782</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7476816018719317</v>
+        <v>0.8146179553015536</v>
       </c>
       <c r="J6" t="n">
-        <v>0.67700320038633</v>
+        <v>0.8437205738748232</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8897901524343517</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8122328620674136</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8443002652630049</v>
+        <v>0.8748592547577652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.92973478995949</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9308156079827784</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7264831572567788</v>
+        <v>0.8368831793646447</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8518770125108697</v>
+        <v>0.8368831793646447</v>
       </c>
       <c r="G7" t="n">
-        <v>0.565194165260439</v>
+        <v>0.8379123453768322</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.9320492938893234</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7476816018719317</v>
+        <v>0.8265210400160413</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7359800721939872</v>
+        <v>0.8635755391767456</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9789450103725609</v>
+        <v>0.8897901524343517</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8100925873009825</v>
+        <v>0.8277366404796461</v>
       </c>
       <c r="M7" t="n">
-        <v>0.841625360676755</v>
+        <v>0.8711901768044499</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,16 +1304,6 @@
           <t>Feature_11</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Feature_12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Feature_13</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1403,7 +1311,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lower limb paresthesia</t>
+          <t>Urinary function impairment</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1321,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Motor function</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lower limb paresthesia</t>
+          <t>Urinary function impairment</t>
         </is>
       </c>
     </row>
@@ -1428,17 +1336,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Motor function</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lower limb paresthesia</t>
+          <t>Urinary function impairment</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Motor function</t>
+          <t>Limbs paresis or weakness</t>
         </is>
       </c>
     </row>
@@ -1448,22 +1356,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Motor function</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lower limb pain</t>
+          <t>Urinary function impairment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lower limb paresthesia</t>
+          <t>Lower back spine pain</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Motor function</t>
+          <t>Limbs paresis or weakness</t>
         </is>
       </c>
     </row>
@@ -1478,22 +1386,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lower limb pain</t>
+          <t>Motor function</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lower limb paresthesia</t>
+          <t>Urinary function impairment</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Upper limb neuropathy</t>
+          <t>Lower back spine pain</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Motor function</t>
+          <t>Limbs paresis or weakness</t>
         </is>
       </c>
     </row>
@@ -1508,27 +1416,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Motor function</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Urinary function impairment</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Lower limb pain</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lower limb paresthesia</t>
+          <t>Paresthesia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Upper limb neuropathy</t>
+          <t>Lower back spine pain</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Motor function</t>
+          <t>Limbs paresis or weakness</t>
         </is>
       </c>
     </row>
@@ -1543,32 +1451,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Motor function</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Urinary function impairment</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Lower limb pain</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lower limb paresthesia</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lower limb paresis weakness</t>
+          <t>Paresthesia</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Upper limb neuropathy</t>
+          <t>Lower back spine pain</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Motor function</t>
+          <t>Limbs paresis or weakness</t>
         </is>
       </c>
     </row>
@@ -1578,42 +1486,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Dermatological symptoms</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Motor function</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Urinary function impairment</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Lower limb pain</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Lower limb paresthesia</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lower limb paresis weakness</t>
+          <t>Paresthesia</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Upper limb neuropathy</t>
+          <t>Lower back spine pain</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Motor function</t>
+          <t>Limbs paresis or weakness</t>
         </is>
       </c>
     </row>
@@ -1633,37 +1541,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Motor function</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Dermatological symptoms</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Urinary function impairment</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lower limb pain</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Lower limb paresthesia</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Lower limb paresis weakness</t>
+          <t>Paresthesia</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Upper limb neuropathy</t>
+          <t>Lower back spine pain</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Motor function</t>
+          <t>Limbs paresis or weakness</t>
         </is>
       </c>
     </row>
@@ -1683,42 +1591,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Motor function</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Dermatological symptoms</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Arthralgia</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Urinary function impairment</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Lower limb pain</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Lower limb paresthesia</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Lower limb paresis weakness</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>Paresthesia</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>Lower back spine pain</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Upper limb neuropathy</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Motor function</t>
+          <t>Limbs paresis or weakness</t>
         </is>
       </c>
     </row>
@@ -1738,32 +1646,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Motor function</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Dermatological symptoms</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Arthralgia</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Urinary function impairment</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Lower limb pain</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Lower limb paresthesia</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Lower limb paresis weakness</t>
+          <t>Paresthesia</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1773,145 +1681,10 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Upper limb neuropathy</t>
+          <t>Limbs paresis or weakness</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
-        <is>
-          <t>Motor function</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Dermatological symptoms</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Arthralgia</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Urinary function impairment</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Lower limb pain</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Lower limb paresthesia</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Lower limb paresis weakness</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Lower back spine pain</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Upper limb neuropathy</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Motor function</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>CD39-Diplotypes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Dermatological symptoms</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Arthralgia</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Urinary function impairment</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Psychiatric symptoms</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Lower limb pain</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Lower limb paresthesia</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Lower limb paresis weakness</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Lower back spine pain</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Upper limb neuropathy</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Motor function</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
         <is>
           <t>CD39-Diplotypes</t>
         </is>
